--- a/spreadsheet/macrofree/aks_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.pt.xlsx
@@ -271,7 +271,25 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="30">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom style="thin">
@@ -285,6 +303,24 @@
       <border>
         <bottom style="thin">
           <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
         <vertical/>
         <horizontal/>
@@ -329,60 +365,6 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.09994811853389081"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -432,20 +414,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
@@ -467,13 +435,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -481,23 +442,25 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="2" tint="-0.09994811853389081"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border>
@@ -522,6 +485,8 @@
         <bottom style="thin">
           <color theme="2" tint="-0.09994811853389081"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -928,7 +893,7 @@
   <dimension ref="A2:P302"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -955,7 +920,7 @@
     <row r="2" ht="26.25" customHeight="1">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>FastTrack for Azure Checklist</t>
+          <t>Azure Checklist</t>
         </is>
       </c>
       <c r="B2" s="13" t="n"/>
@@ -1150,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Se requrired para cargas de trabalho do AKS Windows contêineres HostProcess podem ser usados</t>
+          <t>Se necessário para cargas de trabalho do AKS Windows, os contêineres HostProcess podem ser usados</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1196,7 +1161,7 @@
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>Use o KEDA se estiver executando cargas de trabalho orientadas a eventos</t>
+          <t>Usar o KEDA se estiver executando cargas de trabalho orientadas a eventos</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1283,7 +1248,7 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>Infraestrutura como código</t>
+          <t>Infraestrutura como Código</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
@@ -1375,7 +1340,7 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Alta Disponibilidade</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
@@ -1421,12 +1386,12 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Alta Disponibilidade</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>Usar Zonas de Disponibilidade se elas tiverem suporte em sua região do Azure</t>
+          <t>Usar zonas de disponibilidade se elas tiverem suporte em sua região do Azure</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1467,7 +1432,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Alta Disponibilidade</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1513,7 +1478,7 @@
       </c>
       <c r="B17" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Alta Disponibilidade</t>
         </is>
       </c>
       <c r="C17" s="21" t="inlineStr">
@@ -1559,7 +1524,7 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>Alta disponibilidade</t>
+          <t>Alta Disponibilidade</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
@@ -1610,7 +1575,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>Definir requisitos não funcionais, como SLAs, RTO (Recovery Time Objective) e RPO (Recovery Point Objective).</t>
+          <t>Defina requisitos não funcionais, como SLAs, RTO (Recovery Time Objective, objetivo de tempo de recuperação) e RPO (Recovery Point Objective, objetivo de ponto de recuperação).</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1656,7 +1621,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>Use um aplicativo externo, como o kubecost, para alocar custos para diferentes usuários</t>
+          <t>Use um aplicativo externo, como kubecost, para alocar custos para diferentes usuários</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1794,7 +1759,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Quando necessário, use GPU de partioning de várias instâncias em clusters AKS</t>
+          <t>Quando necessário, use a GPU de partioning de várias instâncias em clusters AKS</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1840,7 +1805,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Se estiver executando um cluster de Desenvolvimento/Teste, use Iniciar/Parar do NodePool</t>
+          <t>Se estiver executando um cluster de desenvolvimento/teste, use NodePool Start/Stop</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1932,7 +1897,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Separe os aplicativos do plano de controle com os nodepools do usuário/sistema</t>
+          <t>Separe os aplicativos do plano de controle com pools de nós de usuário/sistema</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1978,7 +1943,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Adicione taint ao nodepool do seu sistema para torná-lo dedicado</t>
+          <t>Adicione mancha ao seu nodepool do sistema para torná-lo dedicado</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2023,7 +1988,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Usar um registro privado para suas imagens, como ACR</t>
+          <t>Usar um registro privado para suas imagens, como o ACR</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2068,7 +2033,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Verificar suas imagens em busca de vulnerabilidades</t>
+          <t>Analise suas imagens em busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2101,7 +2066,11 @@
       <c r="P29" s="25" t="n"/>
     </row>
     <row r="30" ht="16.5" customHeight="1">
-      <c r="A30" s="21" t="n"/>
+      <c r="A30" s="21" t="inlineStr">
+        <is>
+          <t>Governança e Segurança</t>
+        </is>
+      </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
           <t>Conformidade</t>
@@ -2245,7 +2214,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Armazenar seus segredos no Cofre da Chave do Azure com o driver do CSI Secrets Store</t>
+          <t>Armazene seus segredos no Cofre de Chaves do Azure com o driver do CSI Secrets Store</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2291,7 +2260,7 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando Entidades de Serviço para o cluster, atualize as credenciais periodicamente (como trimestralmente)</t>
+          <t>Se estiver usando entidades de serviço para o cluster, atualize as credenciais periodicamente (como trimestralmente)</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2383,7 +2352,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, considere o uso de Computação Confidencial para AKS</t>
+          <t>Se necessário, considere o uso de computação confidencial para AKS</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2465,7 +2434,7 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
@@ -2475,7 +2444,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Usar identidades gerenciadas em vez de Entidades de Serviço</t>
+          <t>Usar identidades gerenciadas em vez de entidades de serviço</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2511,7 +2480,7 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
@@ -2521,7 +2490,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Integrar a autenticação com o AAD (usando a integração gerenciada)</t>
+          <t>Integrar autenticação com AAD (usando a integração gerenciada)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2557,7 +2526,7 @@
     <row r="40" ht="16.5" customHeight="1">
       <c r="A40" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B40" s="21" t="inlineStr">
@@ -2603,7 +2572,7 @@
     <row r="41" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B41" s="21" t="inlineStr">
@@ -2613,7 +2582,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Integrar autorização com o AAD RBAC</t>
+          <t>Integrar autorização com AAD RBAC</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2649,7 +2618,7 @@
     <row r="42" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B42" s="21" t="inlineStr">
@@ -2695,7 +2664,7 @@
     <row r="43" ht="16.5" customHeight="1">
       <c r="A43" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B43" s="21" t="inlineStr">
@@ -2705,7 +2674,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Para o Gerenciamento de Acesso de Identidade POD, use a Identidade da Carga de Trabalho do Azure AD (visualização)</t>
+          <t>Para o Gerenciamento de Acesso à Identidade POD, use a Identidade de Carga de Trabalho do Azure AD (visualização)</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2741,7 +2710,7 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B44" s="21" t="inlineStr">
@@ -2787,7 +2756,7 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B45" s="21" t="inlineStr">
@@ -2832,7 +2801,7 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B46" s="21" t="inlineStr">
@@ -2842,7 +2811,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Configurar, se necessário, acesso ao cluster Just-in-time</t>
+          <t>Configurar, se necessário, o acesso ao cluster just-in-time</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2878,7 +2847,7 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
@@ -2924,7 +2893,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -2969,7 +2938,7 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
@@ -2979,7 +2948,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Para um controle mais preciso, considere o uso de uma identidade Kubelet gerenciada</t>
+          <t>Para um controle mais fino, considere usar uma Identidade Kubelet gerenciada</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -3014,7 +2983,7 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
@@ -3060,7 +3029,7 @@
     <row r="51" ht="16.5" customHeight="1">
       <c r="A51" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B51" s="21" t="inlineStr">
@@ -3070,7 +3039,7 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Não use o AKS Application Routing Add-On</t>
+          <t>Não use o complemento de roteamento de aplicativo AKS</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
@@ -3106,7 +3075,7 @@
     <row r="52" ht="16.5" customHeight="1">
       <c r="A52" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B52" s="21" t="inlineStr">
@@ -3152,7 +3121,7 @@
     <row r="53" ht="16.5" customHeight="1">
       <c r="A53" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B53" s="21" t="inlineStr">
@@ -3197,7 +3166,7 @@
     <row r="54" ht="16.5" customHeight="1">
       <c r="A54" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B54" s="21" t="inlineStr">
@@ -3207,7 +3176,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando a CNI do Azure, considere o uso de sub-redes diferentes para NodePools</t>
+          <t>Se estiver usando o CNI do Azure, considere usar sub-redes diferentes para NodePools</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3243,7 +3212,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3253,7 +3222,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Usar Pontos de Extremidade Privados (preferencialmente) ou Pontos de Extremidade de Serviço de Rede Virtual para acessar serviços de PaaS a partir do cluster</t>
+          <t>Usar Pontos de Extremidade Privados (preferencial) ou Pontos de Extremidade de Serviço de Rede Virtual para acessar serviços de PaaS do cluster</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3288,7 +3257,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3333,7 +3302,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3343,7 +3312,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Escolha o melhor plug-in de rede CNI para suas necessidades (CNI do Azure recomendado)</t>
+          <t>Escolha o melhor plug-in de rede CNI para seus requisitos (Azure CNI recomendado)</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3378,7 +3347,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3388,7 +3357,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando a CNI do Azure, dimensione sua sub-rede de acordo, considerando o número máximo de pods por nó</t>
+          <t>Se estiver usando o CNI do Azure, dimensione sua sub-rede de acordo considerando o número máximo de pods por nó</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3423,7 +3392,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3433,7 +3402,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando a CNI do Azure, verifique o máximo de pods/nós (padrão 30)</t>
+          <t>Se estiver usando o Azure CNI, verifique o máximo de pods/nó (padrão 30)</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3468,7 +3437,7 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
@@ -3483,7 +3452,7 @@
       </c>
       <c r="D60" s="21" t="inlineStr">
         <is>
-          <t>Para aplicativos internos, as organizações geralmente abrem toda a sub-rede AKS em seus firewalls. Isso também abre o acesso de rede aos nós e, potencialmente, aos pods também (se estiver usando a CNI do Azure). Se os IPs do LoadBalancer estiverem em uma sub-rede diferente, somente este precisará estar disponível para os clientes do aplicativo. Outra razão é que, se os endereços IP na sub-rede AKS forem um recurso escasso, consumir seus endereços IP para serviços reduzirá a escalabilidade máxima do cluster.</t>
+          <t>Para aplicativos internos, as organizações geralmente abrem toda a sub-rede AKS em seus firewalls. Isso abre o acesso de rede para os nós também e, potencialmente, para os pods também (se estiver usando o Azure CNI). Se os IPs do LoadBalancer estiverem em uma sub-rede diferente, somente este precisará estar disponível para os clientes do aplicativo. Outra razão é que, se os endereços IP na sub-rede AKS são um recurso escasso, consumir seus endereços IP para serviços reduzirá a escalabilidade máxima do cluster.</t>
         </is>
       </c>
       <c r="E60" s="21" t="inlineStr">
@@ -3517,7 +3486,7 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
@@ -3527,7 +3496,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Dimensione o intervalo de endereços IP do serviço de acordo (ele limitará a escalabilidade do cluster)</t>
+          <t>Dimensione o intervalo de endereços IP do serviço de acordo (isso limitará a escalabilidade do cluster)</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3562,7 +3531,7 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
@@ -3572,7 +3541,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, adicione seu próprio plug-in CNI</t>
+          <t>Se necessário, adicione seu próprio plugin CNI</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3607,7 +3576,7 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
@@ -3653,7 +3622,7 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
@@ -3663,7 +3632,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Use um controlador de entrada para expor aplicativos baseados na Web em vez de expô-los com serviços do tipo LoadBalancer</t>
+          <t>Usar um controlador de entrada para expor aplicativos baseados na Web em vez de expô-los com serviços do tipo LoadBalancer</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3699,7 +3668,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
@@ -3709,7 +3678,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Usar o Azue NAT Gateway como outboundType para dimensionar o tráfego de saída</t>
+          <t>Usar o Gateway NAT do Azure como outboundType para dimensionar o tráfego de saída</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3745,7 +3714,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
@@ -3755,7 +3724,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Usar alocações dinâmicas de IPs para evitar o esgotamento do IP da CNI do Azure</t>
+          <t>Usar alocações dinâmicas de IPs para evitar o esgotamento de IP do CNI do Azure</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3790,7 +3759,7 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
@@ -3800,7 +3769,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de saída com o AzFW/NVA se os requisitos de segurança o exigirem</t>
+          <t>Filtre o tráfego de saída com AzFW/NVA se seus requisitos de segurança exigirem</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3836,7 +3805,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
@@ -3846,7 +3815,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando um ponto de extremidade de API pública, restrinja os endereços IP que podem acessá-lo</t>
+          <t>Se estiver usando um ponto de extremidade de API público, restrinja os endereços IP que podem acessá-lo</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3882,7 +3851,7 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
@@ -3892,7 +3861,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Usar clusters privados se suas necessidades exigirem</t>
+          <t>Use clusters privados se seus requisitos exigirem</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3928,7 +3897,7 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
@@ -3938,7 +3907,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para nós AKS do Windows 2019 e 2022, as políticas de rede Calico podem ser usadas </t>
+          <t xml:space="preserve">Para os nós AKS do Windows 2019 e 2022, as Diretivas de Rede Calico podem ser usadas </t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3974,7 +3943,7 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
@@ -4020,7 +3989,7 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
@@ -4030,7 +3999,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Use as diretivas de rede do Kubernetes para aumentar a segurança intracluster</t>
+          <t>Usar diretivas de rede do Kubernetes para aumentar a segurança intra-cluster</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4066,7 +4035,7 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
@@ -4076,7 +4045,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Usar um WAF para cargas de trabalho da Web (interfaces de usuário ou APIs)</t>
+          <t>Usar um WAF para cargas de trabalho da Web (UIs ou APIs)</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -4112,7 +4081,7 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
@@ -4158,7 +4127,7 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
@@ -4168,7 +4137,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, adicione o Proxy HTTP da empresa</t>
+          <t>Se necessário, adicione o proxy HTTP da empresa</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -4204,7 +4173,7 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
@@ -4260,7 +4229,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Configurar alertas sobre as métricas mais críticas (consulte Container Insights para obter recomendações)</t>
+          <t>Configurar alertas nas métricas mais críticas (consulte Insights de contêiner para obter recomendações)</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4306,7 +4275,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Verifique regularmente o Azure Advisor para obter recomendações sobre seu cluster</t>
+          <t>Verifique regularmente o Azure Advisor para obter recomendações sobre o seu cluster</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4398,7 +4367,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Ativar a rotação automática de certificados do AKS</t>
+          <t>Habilitar a rotação automática do certificado AKS</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4444,7 +4413,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Tenha um processo regular para atualizar sua versão do kubernetes periodicamente (trimestralmente, por exemplo) ou use o recurso de atualização automática do AKS</t>
+          <t>Tenha um processo regular para atualizar sua versão do kubernetes periodicamente (trimestralmente, por exemplo), ou use o recurso de atualização automática do AKS</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4490,7 +4459,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Use kured para atualizações de nó Linux caso você não esteja usando a atualização de imagem de nó</t>
+          <t>Use kured para atualizações de nó do Linux caso você não esteja usando a atualização de imagem de nó</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4628,7 +4597,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de invocar o comando AKS em clusters privados</t>
+          <t>Considere o uso do comando AKS invoke em clusters privados</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4674,7 +4643,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Para eventos planejados, considere o uso do Nó Auto Drain</t>
+          <t>Para eventos planejados, considere o uso do Dreno Automático de Nó</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4720,7 +4689,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Desenvolver práticas de governança próprias para garantir que nenhuma alteração seja executada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
+          <t>Desenvolver práticas próprias de governança para garantir que nenhuma alteração seja realizada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4766,7 +4735,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Use o nome personalizado do nó RG (também conhecido como 'Infra RG')</t>
+          <t>Use o nome personalizado do Node RG (também conhecido como 'Infra RG')</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4812,7 +4781,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Não use APIs do Kubernetes preteridas em seus manifestos YAML</t>
+          <t>Não use APIs do Kubernetes preteridas em seus manifestos do YAML</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4858,7 +4827,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Taint nós do Windows</t>
+          <t>Manchar os nós do Windows</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4904,7 +4873,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Mantenha o nível de patch dos contêineres do Windows em sincronia com o nível de patch do host</t>
+          <t>Mantenha o nível de patch dos contêineres do Windows sincronizado com o nível do patch do host</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4950,12 +4919,12 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Enviar logs mestres (também conhecidos como logs de API) para o Azure Monitor ou sua solução de gerenciamento de logs preferida</t>
+          <t>Envie logs mestre (também conhecidos como logs de API) para o Azure Monitor ou sua solução de gerenciamento de logs preferida</t>
         </is>
       </c>
       <c r="D92" s="21" t="inlineStr">
         <is>
-          <t>Por meio das Configurações de Diagnóstico no nível do cluster</t>
+          <t>Por meio de Configurações de Diagnóstico no nível do cluster</t>
         </is>
       </c>
       <c r="E92" s="21" t="inlineStr">
@@ -5092,7 +5061,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Monitore suas métricas de cluster com o Container Insights (ou outras ferramentas, como o Prometheus)</t>
+          <t>Monitore suas métricas de cluster com o Container Insights (ou outras ferramentas como o Prometheus)</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5138,7 +5107,7 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Armazene e analise seus logs de cluster com o Container Insights (ou outras ferramentas, como Telegraf/ElasticSearch)</t>
+          <t>Armazene e analise seus logs de cluster com o Container Insights (ou outras ferramentas como Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
@@ -5230,7 +5199,7 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando a CNI do Azure, monitore % de IPs de pod consumidos por nó</t>
+          <t>Se estiver usando o Azure CNI, monitore a % de IPs de pod consumidos por nó</t>
         </is>
       </c>
       <c r="D98" s="21" t="n"/>
@@ -5281,7 +5250,7 @@
       </c>
       <c r="D99" s="21" t="inlineStr">
         <is>
-          <t>A E/S no disco do sistema operacional é um recurso crítico. Se o sistema operacional nos nós for limitado na E/S, isso pode levar a um comportamento imprevisível, normalmente terminando no nó sendo declarado NotReady</t>
+          <t>A E/S no disco do sistema operacional é um recurso crítico. Se o sistema operacional nos nós for limitado na E/S, isso pode levar a um comportamento imprevisível, geralmente terminando no nó sendo declarado NotReady</t>
         </is>
       </c>
       <c r="E99" s="21" t="inlineStr">
@@ -5326,7 +5295,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Se não estiver usando a filtragem de saída com AzFW/NVA, monitore as portas SNAT ALB alocadas padrão</t>
+          <t>Se não estiver usando filtragem de saída com AzFW/NVA, monitore as portas SNAT ALB alocadas padrão</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5372,7 +5341,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Inscrever-se em notificações de integridade de recursos para seu cluster AKS</t>
+          <t>Assine as notificações de integridade de recursos para seu cluster AKS</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5418,7 +5387,7 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Configurar solicitações e limites em suas especificações de pod</t>
+          <t>Configurar solicitações e limites nas especificações do pod</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
@@ -5556,7 +5525,7 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Usar o Cluster Autoscaler</t>
+          <t>Usar o Autoscaler de Cluster</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
@@ -5769,7 +5738,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5815,7 +5784,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5836,7 +5805,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Para uma operação de longa duração em um cluster AKS, considere o encerramento do evento</t>
+          <t>Para operações de longa duração em um cluster AKS, considere o encerramento do evento</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -5860,7 +5829,7 @@
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5881,7 +5850,7 @@
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, considere o uso de Hosts Dedicados do Azure para nós AKS</t>
+          <t>Se necessário, considere usar hosts dedicados do Azure para nós AKS</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
@@ -5906,7 +5875,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -5973,7 +5942,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Para discos não efêmeros, use IOPS altas e discos de sistema operacional maiores para os nós ao executar muitos pods/nós, pois requer alto desempenho para executar vários pods e gerará logs enormes com limites de rotação de log AKS padrão</t>
+          <t>Para discos não efêmeros, use IOPS altos e discos maiores do sistema operacional para os nós ao executar muitos pods/nó, pois requer alto desempenho para executar vários pods e gerará logs enormes com limites de rotação de log AKS padrão</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6064,7 +6033,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Evite manter o estado no cluster e armazene dados fora (AzStorage, AzSQL, Cosmos, etc.)</t>
+          <t>Evite manter o estado no cluster e armazene dados fora (AzStorage, AzSQL, Cosmos, etc)</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6154,7 +6123,7 @@
       </c>
       <c r="C118" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando Discos e AZs do Azure, considere ter pools de nós dentro de uma zona para disco LRS com VolumeBindingMode:WaitForFirstConsumer para provisionar armazenamento na zona direita ou use o disco ZRS para pools de nós que abrangem várias zonas</t>
+          <t>Se estiver usando Discos e AZs do Azure, considere ter nodepools dentro de uma zona para disco LRS com VolumeBindingMode:WaitForFirstConsumer para provisionar armazenamento na zona direita ou use o disco ZRS para nodepools abrangendo várias zonas</t>
         </is>
       </c>
       <c r="D118" s="21" t="n"/>
@@ -8949,20 +8918,118 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
-    <cfRule type="expression" priority="57" dxfId="1">
+  <conditionalFormatting sqref="A8:E57">
+    <cfRule type="expression" priority="7" dxfId="0">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
-    <cfRule type="expression" priority="58" dxfId="0">
+    <cfRule type="expression" priority="8" dxfId="1">
       <formula>($A8&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F87:F297">
-    <cfRule type="expression" priority="31" dxfId="1">
+  <conditionalFormatting sqref="A58:E58 G58:H58">
+    <cfRule type="expression" priority="26" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="27" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59:E86">
+    <cfRule type="expression" priority="9" dxfId="0">
+      <formula>($A59&lt;&gt;$A60)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="10" dxfId="1">
+      <formula>($A59&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87:G297">
+    <cfRule type="expression" priority="31" dxfId="0">
       <formula>($A87&lt;&gt;$A88)</formula>
     </cfRule>
-    <cfRule type="expression" priority="37" dxfId="4">
+    <cfRule type="expression" priority="37" dxfId="8">
       <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="cellIs" priority="25" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D24">
+    <cfRule type="cellIs" priority="11" operator="equal" dxfId="14">
+      <formula>"Fulfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" dxfId="15">
+      <formula>"Not verified"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" dxfId="14">
+      <formula>"Fullfilled"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="14" operator="equal" dxfId="13">
+      <formula>"N/A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" dxfId="12">
+      <formula>"Open"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F86">
+    <cfRule type="expression" priority="5" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" dxfId="8">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F58">
+    <cfRule type="expression" priority="28" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="29" dxfId="8">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:P57 G59:P86">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>($A8&lt;&gt;$A9)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="2" dxfId="1">
+      <formula>($A8&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I58:J58 L58:P58">
+    <cfRule type="expression" priority="251" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="250" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87:I308 J87:P297">
+    <cfRule type="expression" priority="57" dxfId="0">
+      <formula>($A87&lt;&gt;$A88)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="58" dxfId="1">
+      <formula>($A87&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K58">
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>($A58&lt;&gt;"")</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" dxfId="0">
+      <formula>($A58&lt;&gt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:P6">
@@ -8974,123 +9041,8 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:J58 L58:P58">
-    <cfRule type="expression" priority="250" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="251" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" priority="21" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23:D24">
-    <cfRule type="cellIs" priority="16" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" priority="11" operator="equal" dxfId="16">
-      <formula>"Fulfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" dxfId="17">
-      <formula>"Not verified"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" dxfId="16">
-      <formula>"Fullfilled"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="14" operator="equal" dxfId="15">
-      <formula>"N/A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="15" operator="equal" dxfId="14">
-      <formula>"Open"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
-    <cfRule type="expression" priority="9" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8:E43">
-    <cfRule type="expression" priority="7" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="8" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:F86">
-    <cfRule type="expression" priority="5" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:E58 G58:H58">
-    <cfRule type="expression" priority="26" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="27" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F58">
-    <cfRule type="expression" priority="28" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="29" dxfId="4">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8:K57 K59:K86">
-    <cfRule type="expression" priority="1" dxfId="1">
-      <formula>($A8&lt;&gt;$A9)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="2" dxfId="0">
-      <formula>($A8&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K58">
-    <cfRule type="expression" priority="3" dxfId="1">
-      <formula>($A58&lt;&gt;#REF!)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="4" dxfId="0">
-      <formula>($A58&lt;&gt;"")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F119" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -9181,7 +9133,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gerenciamento de Identidade e Acesso</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -9218,7 +9170,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Topologia e conectividade de rede</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -9250,7 +9202,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Essa verificação foi verificada e não há mais itens de ação associados a ela</t>
+          <t>Essa verificação foi verificada e não há outros itens de ação associados a ela</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -9272,7 +9224,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Recomendação entendida, mas não necessária pelos requisitos atuais</t>
+          <t>Recomendação compreendida, mas não necessária pelos requisitos atuais</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/spreadsheet/macrofree/aks_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.pt.xlsx
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Se necessário para escalabilidade, considere adicionar mais de 5000 nós</t>
+          <t>Se mais de 5000 nós forem necessários para escalabilidade, considere o uso de um cluster AKS adicional</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>

--- a/spreadsheet/macrofree/aks_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.pt.xlsx
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, dimensione instantâneos do NodePool</t>
+          <t>Usar o modo de redução para excluir/desalocar nós</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1684,7 +1684,7 @@
       <c r="G21" s="21" t="n"/>
       <c r="H21" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
+          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
         </is>
       </c>
       <c r="I21" s="15" t="n"/>
@@ -1692,7 +1692,7 @@
       <c r="K21" s="22" t="n"/>
       <c r="L21" s="25" t="inlineStr">
         <is>
-          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
+          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
         </is>
       </c>
       <c r="M21" s="25" t="n"/>
@@ -1713,13 +1713,13 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>Usar o modo de redução para excluir/desalocar nós</t>
+          <t>Quando necessário, use a GPU de partioning de várias instâncias em clusters AKS</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
       <c r="E22" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1730,7 +1730,7 @@
       <c r="G22" s="21" t="n"/>
       <c r="H22" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/scale-down-mode</t>
+          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
         </is>
       </c>
       <c r="I22" s="15" t="n"/>
@@ -1738,7 +1738,7 @@
       <c r="K22" s="22" t="n"/>
       <c r="L22" s="25" t="inlineStr">
         <is>
-          <t>4d3dfbab-9924-4831-a68d-fdf0d72f462c</t>
+          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
         </is>
       </c>
       <c r="M22" s="25" t="n"/>
@@ -1759,13 +1759,13 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>Quando necessário, use a GPU de partioning de várias instâncias em clusters AKS</t>
+          <t>Se estiver executando um cluster de desenvolvimento/teste, use NodePool Start/Stop</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
       <c r="E23" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1776,7 +1776,7 @@
       <c r="G23" s="21" t="n"/>
       <c r="H23" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/gpu-multi-instance</t>
+          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
         </is>
       </c>
       <c r="I23" s="15" t="n"/>
@@ -1784,7 +1784,7 @@
       <c r="K23" s="22" t="n"/>
       <c r="L23" s="25" t="inlineStr">
         <is>
-          <t>87e651ea-bc4a-4a87-a6df-c06a4b570ebc</t>
+          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
         </is>
       </c>
       <c r="M23" s="25" t="n"/>
@@ -1795,23 +1795,23 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>Governança de Custos</t>
+          <t>Governança e Segurança</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>Se estiver executando um cluster de desenvolvimento/teste, use NodePool Start/Stop</t>
+          <t>Usar a Política do Azure para Kubernetes para garantir a conformidade do cluster</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
       <c r="E24" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1822,7 +1822,7 @@
       <c r="G24" s="21" t="n"/>
       <c r="H24" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/start-stop-nodepools</t>
+          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
         </is>
       </c>
       <c r="I24" s="15" t="n"/>
@@ -1830,7 +1830,7 @@
       <c r="K24" s="22" t="n"/>
       <c r="L24" s="25" t="inlineStr">
         <is>
-          <t>2b72a08b-0410-4cd6-9093-e068a5cf27e8</t>
+          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
         </is>
       </c>
       <c r="M24" s="25" t="n"/>
@@ -1851,7 +1851,7 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>Usar a Política do Azure para Kubernetes para garantir a conformidade do cluster</t>
+          <t>Separe os aplicativos do plano de controle com pools de nós de usuário/sistema</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
@@ -1868,7 +1868,7 @@
       <c r="G25" s="21" t="n"/>
       <c r="H25" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/governance/policy/concepts/policy-for-kubernetes</t>
+          <t>https://learn.microsoft.com/azure/aks/use-system-pools</t>
         </is>
       </c>
       <c r="I25" s="15" t="n"/>
@@ -1876,7 +1876,7 @@
       <c r="K25" s="22" t="n"/>
       <c r="L25" s="25" t="inlineStr">
         <is>
-          <t>9ca48e4a-85e2-4223-bce8-bb12307ca5f1</t>
+          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
         </is>
       </c>
       <c r="M25" s="25" t="n"/>
@@ -1897,13 +1897,13 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>Separe os aplicativos do plano de controle com pools de nós de usuário/sistema</t>
+          <t>Adicione mancha ao seu nodepool do sistema para torná-lo dedicado</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
       <c r="E26" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="K26" s="22" t="n"/>
       <c r="L26" s="25" t="inlineStr">
         <is>
-          <t>6f158e3e-a3a9-42c2-be7e-2165c3a87af4</t>
+          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
         </is>
       </c>
       <c r="M26" s="25" t="n"/>
@@ -1943,13 +1943,13 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>Adicione mancha ao seu nodepool do sistema para torná-lo dedicado</t>
+          <t>Usar um registro privado para suas imagens, como o ACR</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
       <c r="E27" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1960,14 +1960,14 @@
       <c r="G27" s="21" t="n"/>
       <c r="H27" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-system-pools</t>
+          <t>https://learn.microsoft.com/azure/container-registry/</t>
         </is>
       </c>
       <c r="J27" s="22" t="n"/>
       <c r="K27" s="22" t="n"/>
       <c r="L27" s="25" t="inlineStr">
         <is>
-          <t>a7a1f893-9bda-4477-98f2-4c116775c2ea</t>
+          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
         </is>
       </c>
       <c r="M27" s="25" t="n"/>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>Usar um registro privado para suas imagens, como o ACR</t>
+          <t>Analise suas imagens em busca de vulnerabilidades</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -2005,14 +2005,14 @@
       <c r="G28" s="21" t="n"/>
       <c r="H28" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/container-registry/</t>
+          <t>https://learn.microsoft.com/azure/security-center/container-security</t>
         </is>
       </c>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>55b46a94-8008-4ae7-b7e4-b475b6c8bdbf</t>
+          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>Analise suas imagens em busca de vulnerabilidades</t>
+          <t>Usar a Central de Segurança do Azure para detectar vulnerabilidades de postura de segurança</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2057,7 +2057,7 @@
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>59bce65d-e8a0-43f9-9879-468d66a786d6</t>
+          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2078,13 +2078,13 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>Usar a Central de Segurança do Azure para detectar vulnerabilidades de postura de segurança</t>
+          <t>Se necessário, configure o FIPS</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2095,14 +2095,14 @@
       <c r="G30" s="21" t="n"/>
       <c r="H30" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/security-center/container-security</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
         </is>
       </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>cc639637-a652-42ac-89e8-06965388e9de</t>
+          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2123,13 +2123,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, configure o FIPS</t>
+          <t>Definir requisitos de separação de aplicativos (namespace/nodepool/cluster)</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2140,14 +2140,14 @@
       <c r="G31" s="21" t="n"/>
       <c r="H31" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-fips-enabled-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
         </is>
       </c>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>42d4aefe-2383-470e-b019-c30df24996b2</t>
+          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2163,18 +2163,18 @@
       </c>
       <c r="B32" s="21" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Segredos</t>
         </is>
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Definir requisitos de separação de aplicativos (namespace/nodepool/cluster)</t>
+          <t>Armazene seus segredos no Cofre de Chaves do Azure com o driver do CSI Secrets Store</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2185,7 +2185,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-cluster-isolation</t>
+          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2193,7 +2193,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>d167dd18-2b0a-4c24-8b99-9a646f8389a7</t>
+          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2214,13 +2214,13 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Armazene seus segredos no Cofre de Chaves do Azure com o driver do CSI Secrets Store</t>
+          <t>Se estiver usando entidades de serviço para o cluster, atualize as credenciais periodicamente (como trimestralmente)</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
       <c r="E33" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -2231,7 +2231,7 @@
       <c r="G33" s="21" t="n"/>
       <c r="H33" s="15" t="inlineStr">
         <is>
-          <t>https://github.com/Azure/secrets-store-csi-driver-provider-azure</t>
+          <t>https://learn.microsoft.com/azure/aks/update-credentials</t>
         </is>
       </c>
       <c r="I33" s="15" t="n"/>
@@ -2239,7 +2239,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>5e3df584-eccc-4d97-a3b6-bcda3b50eb2e</t>
+          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2260,13 +2260,13 @@
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando entidades de serviço para o cluster, atualize as credenciais periodicamente (como trimestralmente)</t>
+          <t>Se necessário, adicione criptografia etcd do Serviço de Gerenciamento de Chaves</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
       <c r="E34" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2277,7 +2277,7 @@
       <c r="G34" s="21" t="n"/>
       <c r="H34" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/update-credentials</t>
+          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
         </is>
       </c>
       <c r="I34" s="15" t="n"/>
@@ -2285,7 +2285,7 @@
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>b03dda6d-58d7-4c89-8ddb-107d5769ae66</t>
+          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2306,13 +2306,13 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, adicione criptografia etcd do Serviço de Gerenciamento de Chaves</t>
+          <t>Se necessário, considere o uso de computação confidencial para AKS</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
       <c r="E35" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2323,7 +2323,7 @@
       <c r="G35" s="21" t="n"/>
       <c r="H35" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-kms-etcd-encryption</t>
+          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
         </is>
       </c>
       <c r="I35" s="15" t="n"/>
@@ -2331,7 +2331,7 @@
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>e7ba73a3-0508-4f80-806f-527db30cee96</t>
+          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2352,13 +2352,13 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, considere o uso de computação confidencial para AKS</t>
+          <t>Considere o uso do Defender for Containers</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2369,7 +2369,7 @@
       <c r="G36" s="21" t="n"/>
       <c r="H36" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/confidential-computing/confidential-nodes-aks-overview</t>
+          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
         </is>
       </c>
       <c r="I36" s="15" t="n"/>
@@ -2377,7 +2377,7 @@
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>ec8e4e42-0344-41b0-b865-9123e8956d31</t>
+          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2388,23 +2388,23 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>Governança e Segurança</t>
+          <t>Gerenciamento de identidades e acesso</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
         <is>
-          <t>Segredos</t>
+          <t>Identidade</t>
         </is>
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso do Defender for Containers</t>
+          <t>Usar identidades gerenciadas em vez de entidades de serviço</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
       <c r="E37" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2415,7 +2415,7 @@
       <c r="G37" s="21" t="n"/>
       <c r="H37" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/defender-for-cloud/defender-for-containers-enable</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity</t>
         </is>
       </c>
       <c r="I37" s="15" t="n"/>
@@ -2423,7 +2423,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>c9e95ffe-6dd1-4a17-8c5f-110389ca9b21</t>
+          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2444,13 +2444,13 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>Usar identidades gerenciadas em vez de entidades de serviço</t>
+          <t>Integrar autenticação com AAD (usando a integração gerenciada)</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2461,7 +2461,7 @@
       <c r="G38" s="21" t="n"/>
       <c r="H38" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad</t>
         </is>
       </c>
       <c r="I38" s="15" t="n"/>
@@ -2469,7 +2469,7 @@
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>ed127dd1-42b0-46b2-8c69-99a646f3389a</t>
+          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2490,7 +2490,7 @@
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>Integrar autenticação com AAD (usando a integração gerenciada)</t>
+          <t>Limitar o acesso ao admin kubeconfig (get-credentials --admin)</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2507,7 +2507,7 @@
       <c r="G39" s="21" t="n"/>
       <c r="H39" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad</t>
+          <t>https://learn.microsoft.com/azure/aks/control-kubeconfig-access</t>
         </is>
       </c>
       <c r="I39" s="15" t="n"/>
@@ -2515,7 +2515,7 @@
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>7e42c78e-78c0-46a6-8a21-94956e698dc4</t>
+          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>Limitar o acesso ao admin kubeconfig (get-credentials --admin)</t>
+          <t>Integrar autorização com AAD RBAC</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2553,7 +2553,7 @@
       <c r="G40" s="21" t="n"/>
       <c r="H40" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/control-kubeconfig-access</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-azure-rbac</t>
         </is>
       </c>
       <c r="I40" s="15" t="n"/>
@@ -2561,7 +2561,7 @@
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>a2fe27b2-e287-401a-8352-beedf79b488d</t>
+          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2582,13 +2582,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Integrar autorização com AAD RBAC</t>
+          <t>Usar namespaces para restringir o privilégio RBAC no Kubernetes</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2599,7 +2599,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-azure-rbac</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-identity</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2607,7 +2607,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>eec4962c-c3bd-421b-b77f-26e5e6b3bec3</t>
+          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2628,13 +2628,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Usar namespaces para restringir o privilégio RBAC no Kubernetes</t>
+          <t>Para o Gerenciamento de Acesso à Identidade POD, use a Identidade de Carga de Trabalho do Azure AD (visualização)</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2645,7 +2645,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-identity</t>
+          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2653,7 +2653,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>d4f3537c-1346-4dc5-9027-a71ffe1bd05d</t>
+          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Para o Gerenciamento de Acesso à Identidade POD, use a Identidade de Carga de Trabalho do Azure AD (visualização)</t>
+          <t>Para logins não interativos do AKS, use kubelogin (visualização)</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2691,7 +2691,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/workload-identity-migration-sidecar</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2699,7 +2699,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>d2e0d5d7-71d4-41e3-910c-c57b4a4b1410</t>
+          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2720,7 +2720,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>Para logins não interativos do AKS, use kubelogin (visualização)</t>
+          <t>Desativar contas locais do AKS</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2737,7 +2737,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#non-interactive-sign-in-with-kubelogin</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2745,7 +2745,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>f4dcf690-1b30-407d-abab-6f8aa780d3a3</t>
+          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2766,13 +2766,13 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>Desativar contas locais do AKS</t>
+          <t>Configurar, se necessário, o acesso ao cluster just-in-time</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
       <c r="E45" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2783,14 +2783,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#disable-local-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>b085b1f2-3119-4771-8c9a-bbf4411810ec</t>
+          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>Configurar, se necessário, o acesso ao cluster just-in-time</t>
+          <t>Configurar, se necessário, o acesso condicional do AAD para AKS</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2828,7 +2828,7 @@
       <c r="G46" s="21" t="n"/>
       <c r="H46" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#configure-just-in-time-cluster-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
         </is>
       </c>
       <c r="I46" s="15" t="n"/>
@@ -2836,7 +2836,7 @@
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>36abb0db-c118-4f4c-9880-3f30f9a2deb6</t>
+          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>Configurar, se necessário, o acesso condicional do AAD para AKS</t>
+          <t xml:space="preserve">Se necessário para cargas de trabalho do Windows AKS, configure o gMSA </t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2874,7 +2874,7 @@
       <c r="G47" s="21" t="n"/>
       <c r="H47" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/managed-aad#use-conditional-access-with-azure-ad-and-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
         </is>
       </c>
       <c r="I47" s="15" t="n"/>
@@ -2882,7 +2882,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>c4d7f4c6-79bf-45d0-aa05-ce8fc717e150</t>
+          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2903,13 +2903,13 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Se necessário para cargas de trabalho do Windows AKS, configure o gMSA </t>
+          <t>Para um controle mais fino, considere usar uma Identidade Kubelet gerenciada</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2920,14 +2920,14 @@
       <c r="G48" s="21" t="n"/>
       <c r="H48" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-group-managed-service-accounts</t>
+          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
         </is>
       </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>e1123a7c-a333-4eb4-a120-4ee3f293c9f3</t>
+          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2938,17 +2938,17 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="21" t="inlineStr">
         <is>
-          <t>Gerenciamento de identidades e acesso</t>
+          <t>Topologia de rede e conectividade</t>
         </is>
       </c>
       <c r="B49" s="21" t="inlineStr">
         <is>
-          <t>Identidade</t>
+          <t>Práticas recomendadas</t>
         </is>
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>Para um controle mais fino, considere usar uma Identidade Kubelet gerenciada</t>
+          <t>Se estiver usando AGIC, não compartilhe um AppGW entre clusters</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2965,14 +2965,14 @@
       <c r="G49" s="21" t="n"/>
       <c r="H49" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-managed-identity#use-a-pre-created-kubelet-managed-identity</t>
+          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
         </is>
       </c>
       <c r="J49" s="22" t="n"/>
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>1f711a74-3672-470b-b8b8-a2148d640d79</t>
+          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2993,13 +2993,13 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando AGIC, não compartilhe um AppGW entre clusters</t>
+          <t>Não use o complemento de roteamento de aplicativo AKS</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -3010,7 +3010,7 @@
       <c r="G50" s="21" t="n"/>
       <c r="H50" s="15" t="inlineStr">
         <is>
-          <t>https://azure.github.io/application-gateway-kubernetes-ingress/setup/install-existing/</t>
+          <t>https://learn.microsoft.com/azure/aks/http-application-routing</t>
         </is>
       </c>
       <c r="I50" s="15" t="n"/>
@@ -3018,7 +3018,7 @@
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>cbd8ac2a-aebc-4a2a-94da-1dbf3dc99248</t>
+          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -3039,13 +3039,13 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>Não use o complemento de roteamento de aplicativo AKS</t>
+          <t>Para cargas de trabalho do Windows, use a Rede Acelerada</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
       <c r="E51" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -3056,7 +3056,7 @@
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-application-routing</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
         </is>
       </c>
       <c r="I51" s="15" t="n"/>
@@ -3064,7 +3064,7 @@
       <c r="K51" s="22" t="n"/>
       <c r="L51" s="25" t="inlineStr">
         <is>
-          <t>8008ae7d-7e4b-4475-a6c8-bdbf59bce65d</t>
+          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
         </is>
       </c>
       <c r="M51" s="25" t="n"/>
@@ -3085,13 +3085,13 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>Para cargas de trabalho do Windows, use a Rede Acelerada</t>
+          <t>Use o ALB padrão (em oposição ao básico)</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
       <c r="E52" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -3102,7 +3102,7 @@
       <c r="G52" s="21" t="n"/>
       <c r="H52" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/accelerated-networking-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="I52" s="15" t="n"/>
@@ -3110,7 +3110,7 @@
       <c r="K52" s="22" t="n"/>
       <c r="L52" s="25" t="inlineStr">
         <is>
-          <t>7bacd7b9-c025-4a9d-a5d2-25d6bc5439d9</t>
+          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
         </is>
       </c>
       <c r="M52" s="25" t="n"/>
@@ -3131,13 +3131,13 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>Use o ALB padrão (em oposição ao básico)</t>
+          <t>Se estiver usando o CNI do Azure, considere usar sub-redes diferentes para NodePools</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
       <c r="E53" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -3148,14 +3148,14 @@
       <c r="G53" s="21" t="n"/>
       <c r="H53" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
         </is>
       </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
       <c r="L53" s="25" t="inlineStr">
         <is>
-          <t>ba7da7be-9952-4914-a384-5d997cb39132</t>
+          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
         </is>
       </c>
       <c r="M53" s="25" t="n"/>
@@ -3171,12 +3171,12 @@
       </c>
       <c r="B54" s="21" t="inlineStr">
         <is>
-          <t>Práticas recomendadas</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o CNI do Azure, considere usar sub-redes diferentes para NodePools</t>
+          <t>Usar Pontos de Extremidade Privados (preferencial) ou Pontos de Extremidade de Serviço de Rede Virtual para acessar serviços de PaaS do cluster</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3193,7 +3193,7 @@
       <c r="G54" s="21" t="n"/>
       <c r="H54" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#add-a-node-pool-with-a-unique-subnet</t>
+          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
         </is>
       </c>
       <c r="I54" s="15" t="n"/>
@@ -3201,7 +3201,7 @@
       <c r="K54" s="22" t="n"/>
       <c r="L54" s="25" t="inlineStr">
         <is>
-          <t>22fbe8d6-9b40-47ef-9011-25bb1a555a6b</t>
+          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
         </is>
       </c>
       <c r="M54" s="25" t="n"/>
@@ -3217,12 +3217,12 @@
       </c>
       <c r="B55" s="21" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>HA</t>
         </is>
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>Usar Pontos de Extremidade Privados (preferencial) ou Pontos de Extremidade de Serviço de Rede Virtual para acessar serviços de PaaS do cluster</t>
+          <t>Se a conectividade híbrida for necessária, use 2xER ou ER+VPN para melhor disponibilidade</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3239,14 +3239,14 @@
       <c r="G55" s="21" t="n"/>
       <c r="H55" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/private-link/private-link-overview</t>
+          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
         </is>
       </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
       <c r="L55" s="25" t="inlineStr">
         <is>
-          <t>c3c39c98-6bb2-4c12-859a-114b5e3df584</t>
+          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
         </is>
       </c>
       <c r="M55" s="25" t="n"/>
@@ -3262,18 +3262,18 @@
       </c>
       <c r="B56" s="21" t="inlineStr">
         <is>
-          <t>HA</t>
+          <t>IPAM</t>
         </is>
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>Se a conectividade híbrida for necessária, use 2xER ou ER+VPN para melhor disponibilidade</t>
+          <t>Escolha o melhor plug-in de rede CNI para seus requisitos (Azure CNI recomendado)</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
       <c r="E56" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3284,14 +3284,14 @@
       <c r="G56" s="21" t="n"/>
       <c r="H56" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
       <c r="L56" s="25" t="inlineStr">
         <is>
-          <t>e8a03f97-8794-468d-96a7-86d60f96c97b</t>
+          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
         </is>
       </c>
       <c r="M56" s="25" t="n"/>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Escolha o melhor plug-in de rede CNI para seus requisitos (Azure CNI recomendado)</t>
+          <t>Se estiver usando o CNI do Azure, dimensione sua sub-rede de acordo considerando o número máximo de pods por nó</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3329,14 +3329,14 @@
       <c r="G57" s="21" t="n"/>
       <c r="H57" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
       <c r="L57" s="25" t="inlineStr">
         <is>
-          <t>a0f61565-9de5-458f-a372-49c831112dbd</t>
+          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
         </is>
       </c>
       <c r="M57" s="25" t="n"/>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o CNI do Azure, dimensione sua sub-rede de acordo considerando o número máximo de pods por nó</t>
+          <t>Se estiver usando o Azure CNI, verifique o máximo de pods/nó (padrão 30)</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3381,7 +3381,7 @@
       <c r="K58" s="22" t="n"/>
       <c r="L58" s="25" t="inlineStr">
         <is>
-          <t>7faf12e7-0943-4f63-8472-2da29c2b1cd6</t>
+          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
         </is>
       </c>
       <c r="M58" s="25" t="n"/>
@@ -3402,13 +3402,17 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Azure CNI, verifique o máximo de pods/nó (padrão 30)</t>
-        </is>
-      </c>
-      <c r="D59" s="21" t="n"/>
+          <t>Se estiver usando serviços LoadBalancer de IP privado, use uma sub-rede dedicada (não a sub-rede AKS)</t>
+        </is>
+      </c>
+      <c r="D59" s="21" t="inlineStr">
+        <is>
+          <t>Para aplicativos internos, as organizações geralmente abrem toda a sub-rede AKS em seus firewalls. Isso abre o acesso de rede para os nós também e, potencialmente, para os pods também (se estiver usando o Azure CNI). Se os IPs do LoadBalancer estiverem em uma sub-rede diferente, somente este precisará estar disponível para os clientes do aplicativo. Outra razão é que, se os endereços IP na sub-rede AKS são um recurso escasso, consumir seus endereços IP para serviços reduzirá a escalabilidade máxima do cluster.</t>
+        </is>
+      </c>
       <c r="E59" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -3419,14 +3423,14 @@
       <c r="G59" s="21" t="n"/>
       <c r="H59" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/internal-lb</t>
         </is>
       </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
       <c r="L59" s="25" t="inlineStr">
         <is>
-          <t>22f54b29-bade-43aa-b1e8-c38ec9366673</t>
+          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
         </is>
       </c>
       <c r="M59" s="25" t="n"/>
@@ -3447,17 +3451,13 @@
       </c>
       <c r="C60" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando serviços LoadBalancer de IP privado, use uma sub-rede dedicada (não a sub-rede AKS)</t>
-        </is>
-      </c>
-      <c r="D60" s="21" t="inlineStr">
-        <is>
-          <t>Para aplicativos internos, as organizações geralmente abrem toda a sub-rede AKS em seus firewalls. Isso abre o acesso de rede para os nós também e, potencialmente, para os pods também (se estiver usando o Azure CNI). Se os IPs do LoadBalancer estiverem em uma sub-rede diferente, somente este precisará estar disponível para os clientes do aplicativo. Outra razão é que, se os endereços IP na sub-rede AKS são um recurso escasso, consumir seus endereços IP para serviços reduzirá a escalabilidade máxima do cluster.</t>
-        </is>
-      </c>
+          <t>Dimensione o intervalo de endereços IP do serviço de acordo (isso limitará a escalabilidade do cluster)</t>
+        </is>
+      </c>
+      <c r="D60" s="21" t="n"/>
       <c r="E60" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3468,14 +3468,14 @@
       <c r="G60" s="21" t="n"/>
       <c r="H60" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/internal-lb</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="J60" s="22" t="n"/>
       <c r="K60" s="22" t="n"/>
       <c r="L60" s="25" t="inlineStr">
         <is>
-          <t>13c00567-4b1e-4945-a459-c373e7ed6162</t>
+          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
         </is>
       </c>
       <c r="M60" s="25" t="n"/>
@@ -3491,18 +3491,18 @@
       </c>
       <c r="B61" s="21" t="inlineStr">
         <is>
-          <t>IPAM</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>Dimensione o intervalo de endereços IP do serviço de acordo (isso limitará a escalabilidade do cluster)</t>
+          <t>Se necessário, adicione seu próprio plugin CNI</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
       <c r="E61" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3513,14 +3513,14 @@
       <c r="G61" s="21" t="n"/>
       <c r="H61" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
         </is>
       </c>
       <c r="J61" s="22" t="n"/>
       <c r="K61" s="22" t="n"/>
       <c r="L61" s="25" t="inlineStr">
         <is>
-          <t>43f63047-22d9-429c-8b1c-d622f54b29ba</t>
+          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
         </is>
       </c>
       <c r="M61" s="25" t="n"/>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, adicione seu próprio plugin CNI</t>
+          <t>Se necessário, configure o IP público por nó no AKS</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3558,14 +3558,14 @@
       <c r="G62" s="21" t="n"/>
       <c r="H62" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-byo-cni</t>
+          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
         </is>
       </c>
       <c r="J62" s="22" t="n"/>
       <c r="K62" s="22" t="n"/>
       <c r="L62" s="25" t="inlineStr">
         <is>
-          <t>57bf217f-6dc8-481c-81e2-785773e9c00f</t>
+          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
         </is>
       </c>
       <c r="M62" s="25" t="n"/>
@@ -3581,18 +3581,18 @@
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, configure o IP público por nó no AKS</t>
+          <t>Usar um controlador de entrada para expor aplicativos baseados na Web em vez de expô-los com serviços do tipo LoadBalancer</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
       <c r="E63" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3603,7 +3603,7 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-multiple-node-pools#assign-a-public-ip-per-node-for-your-node-pools</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-network</t>
         </is>
       </c>
       <c r="I63" s="15" t="n"/>
@@ -3611,7 +3611,7 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
         <is>
-          <t>4b3bb365-9458-44d9-9ed1-5c8f52890364</t>
+          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
         </is>
       </c>
       <c r="M63" s="25" t="n"/>
@@ -3632,13 +3632,13 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>Usar um controlador de entrada para expor aplicativos baseados na Web em vez de expô-los com serviços do tipo LoadBalancer</t>
+          <t>Usar o Gateway NAT do Azure como outboundType para dimensionar o tráfego de saída</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
       <c r="E64" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3649,7 +3649,7 @@
       <c r="G64" s="21" t="n"/>
       <c r="H64" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-network</t>
+          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
         </is>
       </c>
       <c r="I64" s="15" t="n"/>
@@ -3657,7 +3657,7 @@
       <c r="K64" s="22" t="n"/>
       <c r="L64" s="25" t="inlineStr">
         <is>
-          <t>b3808b9f-a1cf-4204-ad01-3a923ce474db</t>
+          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
         </is>
       </c>
       <c r="M64" s="25" t="n"/>
@@ -3678,13 +3678,13 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>Usar o Gateway NAT do Azure como outboundType para dimensionar o tráfego de saída</t>
+          <t>Usar alocações dinâmicas de IPs para evitar o esgotamento de IP do CNI do Azure</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
       <c r="E65" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3695,7 +3695,7 @@
       <c r="G65" s="21" t="n"/>
       <c r="H65" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/nat-gateway</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
         </is>
       </c>
       <c r="I65" s="15" t="n"/>
@@ -3703,7 +3703,7 @@
       <c r="K65" s="22" t="n"/>
       <c r="L65" s="25" t="inlineStr">
         <is>
-          <t>ccb534e7-416e-4a1d-8e93-533b53199085</t>
+          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
         </is>
       </c>
       <c r="M65" s="25" t="n"/>
@@ -3719,18 +3719,18 @@
       </c>
       <c r="B66" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Segurança</t>
         </is>
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>Usar alocações dinâmicas de IPs para evitar o esgotamento de IP do CNI do Azure</t>
+          <t>Filtre o tráfego de saída com AzFW/NVA se seus requisitos de segurança exigirem</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
       <c r="E66" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3741,14 +3741,14 @@
       <c r="G66" s="21" t="n"/>
       <c r="H66" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni#dynamic-allocation-of-ips-and-enhanced-subnet-support</t>
+          <t>https://learn.microsoft.com/azure/aks/limit-egress-traffic</t>
         </is>
       </c>
       <c r="J66" s="22" t="n"/>
       <c r="K66" s="22" t="n"/>
       <c r="L66" s="25" t="inlineStr">
         <is>
-          <t>8ee9a69a-1b58-4b1e-9c61-476e110a160b</t>
+          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
         </is>
       </c>
       <c r="M66" s="25" t="n"/>
@@ -3769,13 +3769,13 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>Filtre o tráfego de saída com AzFW/NVA se seus requisitos de segurança exigirem</t>
+          <t>Se estiver usando um ponto de extremidade de API público, restrinja os endereços IP que podem acessá-lo</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
       <c r="E67" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -3786,7 +3786,7 @@
       <c r="G67" s="21" t="n"/>
       <c r="H67" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/limit-egress-traffic</t>
+          <t>https://learn.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
         </is>
       </c>
       <c r="I67" s="15" t="n"/>
@@ -3794,7 +3794,7 @@
       <c r="K67" s="22" t="n"/>
       <c r="L67" s="25" t="inlineStr">
         <is>
-          <t>3b365a91-7ecb-4e48-bbe5-4cd7df2e8bba</t>
+          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
         </is>
       </c>
       <c r="M67" s="25" t="n"/>
@@ -3815,13 +3815,13 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando um ponto de extremidade de API público, restrinja os endereços IP que podem acessá-lo</t>
+          <t>Use clusters privados se seus requisitos exigirem</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
       <c r="E68" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3832,7 +3832,7 @@
       <c r="G68" s="21" t="n"/>
       <c r="H68" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/api-server-authorized-ip-ranges</t>
+          <t>https://learn.microsoft.com/azure/aks/private-clusters</t>
         </is>
       </c>
       <c r="I68" s="15" t="n"/>
@@ -3840,7 +3840,7 @@
       <c r="K68" s="22" t="n"/>
       <c r="L68" s="25" t="inlineStr">
         <is>
-          <t>c4581559-bb91-463e-a908-aed8c44ce3b2</t>
+          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
         </is>
       </c>
       <c r="M68" s="25" t="n"/>
@@ -3861,13 +3861,13 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>Use clusters privados se seus requisitos exigirem</t>
+          <t xml:space="preserve">Para os nós AKS do Windows 2019 e 2022, as Diretivas de Rede Calico podem ser usadas </t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
       <c r="E69" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3878,7 +3878,7 @@
       <c r="G69" s="21" t="n"/>
       <c r="H69" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/private-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
         </is>
       </c>
       <c r="I69" s="15" t="n"/>
@@ -3886,7 +3886,7 @@
       <c r="K69" s="22" t="n"/>
       <c r="L69" s="25" t="inlineStr">
         <is>
-          <t>ecccd979-3b6b-4cda-9b50-eb2eb03dda6d</t>
+          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
         </is>
       </c>
       <c r="M69" s="25" t="n"/>
@@ -3907,13 +3907,13 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Para os nós AKS do Windows 2019 e 2022, as Diretivas de Rede Calico podem ser usadas </t>
+          <t>Habilitar uma opção de Política de Rede do Kubernetes (Calico/Azure)</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
       <c r="E70" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3932,7 +3932,7 @@
       <c r="K70" s="23" t="n"/>
       <c r="L70" s="25" t="inlineStr">
         <is>
-          <t>ce7f2a7c-297c-47c6-adea-a6ff838db665</t>
+          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
         </is>
       </c>
       <c r="M70" s="25" t="n"/>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>Habilitar uma opção de Política de Rede do Kubernetes (Calico/Azure)</t>
+          <t>Usar diretivas de rede do Kubernetes para aumentar a segurança intra-cluster</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3970,7 +3970,7 @@
       <c r="G71" s="21" t="n"/>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-network-policies</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
         </is>
       </c>
       <c r="I71" s="15" t="n"/>
@@ -3978,7 +3978,7 @@
       <c r="K71" s="22" t="n"/>
       <c r="L71" s="25" t="inlineStr">
         <is>
-          <t>58d7c892-ddb1-407d-9769-ae669ca48e4a</t>
+          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
         </is>
       </c>
       <c r="M71" s="25" t="n"/>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Usar diretivas de rede do Kubernetes para aumentar a segurança intra-cluster</t>
+          <t>Usar um WAF para cargas de trabalho da Web (UIs ou APIs)</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
@@ -4024,7 +4024,7 @@
       <c r="K72" s="22" t="n"/>
       <c r="L72" s="25" t="inlineStr">
         <is>
-          <t>85e2223e-ce8b-4b12-907c-a5f16f158e3e</t>
+          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
         </is>
       </c>
       <c r="M72" s="25" t="n"/>
@@ -4045,13 +4045,13 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Usar um WAF para cargas de trabalho da Web (UIs ou APIs)</t>
+          <t>Usar DDoS Standard na Rede Virtual AKS</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
       <c r="E73" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -4062,7 +4062,7 @@
       <c r="G73" s="21" t="n"/>
       <c r="H73" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-network</t>
+          <t>https://learn.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I73" s="15" t="n"/>
@@ -4070,7 +4070,7 @@
       <c r="K73" s="22" t="n"/>
       <c r="L73" s="25" t="inlineStr">
         <is>
-          <t>a3a92c2d-e7e2-4165-a3a8-7af4a7a1f893</t>
+          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
         </is>
       </c>
       <c r="M73" s="25" t="n"/>
@@ -4091,13 +4091,13 @@
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>Usar DDoS Standard na Rede Virtual AKS</t>
+          <t>Se necessário, adicione o proxy HTTP da empresa</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
       <c r="E74" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -4108,7 +4108,7 @@
       <c r="G74" s="21" t="n"/>
       <c r="H74" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-network/ddos-protection-overview</t>
+          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
         </is>
       </c>
       <c r="I74" s="15" t="n"/>
@@ -4116,7 +4116,7 @@
       <c r="K74" s="22" t="n"/>
       <c r="L74" s="25" t="inlineStr">
         <is>
-          <t>9bda4776-8f24-4c11-9775-c2ea55b46a94</t>
+          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
         </is>
       </c>
       <c r="M74" s="25" t="n"/>
@@ -4137,13 +4137,13 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, adicione o proxy HTTP da empresa</t>
+          <t>Considere o uso de uma malha de serviço para gerenciamento avançado de comunicação de microsserviços</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
       <c r="E75" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -4154,7 +4154,7 @@
       <c r="G75" s="21" t="n"/>
       <c r="H75" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/http-proxy</t>
+          <t>https://learn.microsoft.com/azure/aks/servicemesh-about</t>
         </is>
       </c>
       <c r="I75" s="15" t="n"/>
@@ -4162,7 +4162,7 @@
       <c r="K75" s="23" t="n"/>
       <c r="L75" s="25" t="inlineStr">
         <is>
-          <t>6c46b91a-1107-4485-ad66-3183e2a8c266</t>
+          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
         </is>
       </c>
       <c r="M75" s="25" t="n"/>
@@ -4173,23 +4173,23 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>Topologia de rede e conectividade</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
         <is>
-          <t>Segurança</t>
+          <t>Alertando</t>
         </is>
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso de uma malha de serviço para gerenciamento avançado de comunicação de microsserviços</t>
+          <t>Configurar alertas nas métricas mais críticas (consulte Insights de contêiner para obter recomendações)</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
       <c r="E76" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4200,7 +4200,7 @@
       <c r="G76" s="21" t="n"/>
       <c r="H76" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/servicemesh-about</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
         </is>
       </c>
       <c r="I76" s="15" t="n"/>
@@ -4208,7 +4208,7 @@
       <c r="K76" s="22" t="n"/>
       <c r="L76" s="25" t="inlineStr">
         <is>
-          <t>e9855d04-c3c3-49c9-a6bb-2c12159a114b</t>
+          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
         </is>
       </c>
       <c r="M76" s="25" t="n"/>
@@ -4224,18 +4224,18 @@
       </c>
       <c r="B77" s="21" t="inlineStr">
         <is>
-          <t>Alertando</t>
+          <t>Conformidade</t>
         </is>
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>Configurar alertas nas métricas mais críticas (consulte Insights de contêiner para obter recomendações)</t>
+          <t>Verifique regularmente o Azure Advisor para obter recomendações sobre o seu cluster</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
       <c r="E77" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4246,7 +4246,7 @@
       <c r="G77" s="21" t="n"/>
       <c r="H77" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-metric-alerts</t>
+          <t>https://learn.microsoft.com/azure/advisor/advisor-get-started</t>
         </is>
       </c>
       <c r="I77" s="15" t="n"/>
@@ -4254,7 +4254,7 @@
       <c r="K77" s="23" t="n"/>
       <c r="L77" s="25" t="inlineStr">
         <is>
-          <t>67f7a9ed-5b31-4f38-a3f3-9812b2463cff</t>
+          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
         </is>
       </c>
       <c r="M77" s="25" t="n"/>
@@ -4275,7 +4275,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>Verifique regularmente o Azure Advisor para obter recomendações sobre o seu cluster</t>
+          <t>Habilitar a rotação automática do certificado AKS</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4292,7 +4292,7 @@
       <c r="G78" s="21" t="n"/>
       <c r="H78" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/advisor/advisor-get-started</t>
+          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
         </is>
       </c>
       <c r="I78" s="15" t="n"/>
@@ -4300,7 +4300,7 @@
       <c r="K78" s="22" t="n"/>
       <c r="L78" s="25" t="inlineStr">
         <is>
-          <t>337453a3-cc63-4963-9a65-22ac19e80696</t>
+          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
         </is>
       </c>
       <c r="M78" s="25" t="n"/>
@@ -4321,13 +4321,13 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>Desenvolva seus manifestos YAML com editores de texto inteligentes, como vscode+kubeadvisor</t>
+          <t>Tenha um processo regular para atualizar sua versão do kubernetes periodicamente (trimestralmente, por exemplo), ou use o recurso de atualização automática do AKS</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
       <c r="E79" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4338,7 +4338,7 @@
       <c r="G79" s="21" t="n"/>
       <c r="H79" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/aks/supported-kubernetes-versions</t>
         </is>
       </c>
       <c r="I79" s="15" t="n"/>
@@ -4346,7 +4346,7 @@
       <c r="K79" s="22" t="n"/>
       <c r="L79" s="25" t="inlineStr">
         <is>
-          <t>5388e9de-d167-4dd1-a2b0-ac241b999a64</t>
+          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
         </is>
       </c>
       <c r="M79" s="25" t="n"/>
@@ -4367,13 +4367,13 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>Habilitar a rotação automática do certificado AKS</t>
+          <t>Use kured para atualizações de nó do Linux caso você não esteja usando a atualização de imagem de nó</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
       <c r="E80" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4384,7 +4384,7 @@
       <c r="G80" s="21" t="n"/>
       <c r="H80" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/certificate-rotation</t>
+          <t>https://learn.microsoft.com/azure/aks/node-updates-kured</t>
         </is>
       </c>
       <c r="I80" s="15" t="n"/>
@@ -4392,7 +4392,7 @@
       <c r="K80" s="22" t="n"/>
       <c r="L80" s="25" t="inlineStr">
         <is>
-          <t>3aa70560-e7e7-4968-be3d-628af35b2ced</t>
+          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
         </is>
       </c>
       <c r="M80" s="25" t="n"/>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>Tenha um processo regular para atualizar sua versão do kubernetes periodicamente (trimestralmente, por exemplo), ou use o recurso de atualização automática do AKS</t>
+          <t>Tenha um processo regular para atualizar as imagens do nó do cluster periodicamente (semanalmente, por exemplo)</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4430,7 +4430,7 @@
       <c r="G81" s="21" t="n"/>
       <c r="H81" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/supported-kubernetes-versions</t>
+          <t>https://learn.microsoft.com/azure/aks/node-image-upgrade</t>
         </is>
       </c>
       <c r="I81" s="15" t="n"/>
@@ -4438,7 +4438,7 @@
       <c r="K81" s="22" t="n"/>
       <c r="L81" s="25" t="inlineStr">
         <is>
-          <t>e189c599-df0d-45a7-9dd4-ce32c1881370</t>
+          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
         </is>
       </c>
       <c r="M81" s="25" t="n"/>
@@ -4459,13 +4459,13 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>Use kured para atualizações de nó do Linux caso você não esteja usando a atualização de imagem de nó</t>
+          <t>Considere gitops para implantar aplicativos ou configuração de cluster em vários clusters</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
       <c r="E82" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4476,7 +4476,7 @@
       <c r="G82" s="21" t="n"/>
       <c r="H82" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-updates-kured</t>
+          <t>https://learn.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
         </is>
       </c>
       <c r="I82" s="15" t="n"/>
@@ -4484,7 +4484,7 @@
       <c r="K82" s="23" t="n"/>
       <c r="L82" s="25" t="inlineStr">
         <is>
-          <t>6f7c4c0d-4e51-4464-ad24-57ed67138b82</t>
+          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
         </is>
       </c>
       <c r="M82" s="25" t="n"/>
@@ -4505,13 +4505,13 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>Tenha um processo regular para atualizar as imagens do nó do cluster periodicamente (semanalmente, por exemplo)</t>
+          <t>Considere o uso do comando AKS invoke em clusters privados</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
       <c r="E83" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4522,7 +4522,7 @@
       <c r="G83" s="21" t="n"/>
       <c r="H83" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-image-upgrade</t>
+          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
         </is>
       </c>
       <c r="I83" s="15" t="n"/>
@@ -4530,7 +4530,7 @@
       <c r="K83" s="22" t="n"/>
       <c r="L83" s="25" t="inlineStr">
         <is>
-          <t>139c9580-ade3-426a-ba09-cf157d9f6477</t>
+          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
         </is>
       </c>
       <c r="M83" s="25" t="n"/>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>Considere gitops para implantar aplicativos ou configuração de cluster em vários clusters</t>
+          <t>Para eventos planejados, considere o uso do Dreno Automático de Nó</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4568,7 +4568,7 @@
       <c r="G84" s="21" t="n"/>
       <c r="H84" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/architecture/example-scenario/bedrock/bedrock-automated-deployments</t>
+          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
         </is>
       </c>
       <c r="I84" s="15" t="n"/>
@@ -4576,7 +4576,7 @@
       <c r="K84" s="22" t="n"/>
       <c r="L84" s="25" t="inlineStr">
         <is>
-          <t>0102ce16-ee30-41e6-b882-e52e4621dd68</t>
+          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
         </is>
       </c>
       <c r="M84" s="25" t="n"/>
@@ -4597,13 +4597,13 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>Considere o uso do comando AKS invoke em clusters privados</t>
+          <t>Desenvolver práticas próprias de governança para garantir que nenhuma alteração seja realizada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
       <c r="E85" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4614,7 +4614,7 @@
       <c r="G85" s="21" t="n"/>
       <c r="H85" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/command-invoke</t>
+          <t>https://learn.microsoft.com/azure/aks/faq</t>
         </is>
       </c>
       <c r="I85" s="15" t="n"/>
@@ -4622,7 +4622,7 @@
       <c r="K85" s="22" t="n"/>
       <c r="L85" s="25" t="inlineStr">
         <is>
-          <t>d7672c26-7602-4482-85a4-14527fbe855c</t>
+          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
         </is>
       </c>
       <c r="M85" s="25" t="n"/>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>Para eventos planejados, considere o uso do Dreno Automático de Nó</t>
+          <t>Use o nome personalizado do Node RG (também conhecido como 'Infra RG')</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
@@ -4660,7 +4660,7 @@
       <c r="G86" s="21" t="n"/>
       <c r="H86" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/node-auto-repair#node-autodrain</t>
+          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I86" s="15" t="n"/>
@@ -4668,7 +4668,7 @@
       <c r="K86" s="22" t="n"/>
       <c r="L86" s="25" t="inlineStr">
         <is>
-          <t>31d7aaab-7571-4449-ab80-53d89e89d17b</t>
+          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
         </is>
       </c>
       <c r="M86" s="25" t="n"/>
@@ -4689,13 +4689,13 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>Desenvolver práticas próprias de governança para garantir que nenhuma alteração seja realizada pelos operadores no nó RG (também conhecido como 'infra RG')</t>
+          <t>Não use APIs do Kubernetes preteridas em seus manifestos do YAML</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
       <c r="E87" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4706,7 +4706,7 @@
       <c r="G87" s="21" t="n"/>
       <c r="H87" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/faq</t>
+          <t>https://kubernetes.io/docs/setup/release/notes/</t>
         </is>
       </c>
       <c r="I87" s="15" t="n"/>
@@ -4714,7 +4714,7 @@
       <c r="K87" s="22" t="n"/>
       <c r="L87" s="25" t="inlineStr">
         <is>
-          <t>ed0fda7f-211b-47c7-8b6e-c18873fb473c</t>
+          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
         </is>
       </c>
       <c r="M87" s="25" t="n"/>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>Use o nome personalizado do Node RG (também conhecido como 'Infra RG')</t>
+          <t>Manchar os nós do Windows</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4752,7 +4752,7 @@
       <c r="G88" s="21" t="n"/>
       <c r="H88" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://learn.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
         </is>
       </c>
       <c r="I88" s="15" t="n"/>
@@ -4760,7 +4760,7 @@
       <c r="K88" s="22" t="n"/>
       <c r="L88" s="25" t="inlineStr">
         <is>
-          <t>73b32a5a-67f7-4a9e-b5b3-1f38c3f39812</t>
+          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
         </is>
       </c>
       <c r="M88" s="25" t="n"/>
@@ -4781,13 +4781,13 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>Não use APIs do Kubernetes preteridas em seus manifestos do YAML</t>
+          <t>Mantenha o nível de patch dos contêineres do Windows sincronizado com o nível do patch do host</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
       <c r="E89" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -4798,7 +4798,7 @@
       <c r="G89" s="21" t="n"/>
       <c r="H89" s="15" t="inlineStr">
         <is>
-          <t>https://kubernetes.io/docs/setup/release/notes/</t>
+          <t>https://learn.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
         </is>
       </c>
       <c r="I89" s="15" t="n"/>
@@ -4806,7 +4806,7 @@
       <c r="K89" s="22" t="n"/>
       <c r="L89" s="25" t="inlineStr">
         <is>
-          <t>b2463cff-e189-4c59-adf0-d5a73dd4ce32</t>
+          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
         </is>
       </c>
       <c r="M89" s="25" t="n"/>
@@ -4827,10 +4827,14 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>Manchar os nós do Windows</t>
-        </is>
-      </c>
-      <c r="D90" s="21" t="n"/>
+          <t>Envie logs mestre (também conhecidos como logs de API) para o Azure Monitor ou sua solução de gerenciamento de logs preferida</t>
+        </is>
+      </c>
+      <c r="D90" s="21" t="inlineStr">
+        <is>
+          <t>Por meio de Configurações de Diagnóstico no nível do cluster</t>
+        </is>
+      </c>
       <c r="E90" s="21" t="inlineStr">
         <is>
           <t>Baixo</t>
@@ -4844,7 +4848,7 @@
       <c r="G90" s="21" t="n"/>
       <c r="H90" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/aks-hci/adapt-apps-mixed-os-clusters</t>
+          <t>https://learn.microsoft.com/azure/aks/monitor-aks</t>
         </is>
       </c>
       <c r="I90" s="15" t="n"/>
@@ -4852,7 +4856,7 @@
       <c r="K90" s="22" t="n"/>
       <c r="L90" s="25" t="inlineStr">
         <is>
-          <t>c1881370-6f7c-44c0-b4e5-14648d2457ed</t>
+          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
         </is>
       </c>
       <c r="M90" s="25" t="n"/>
@@ -4873,7 +4877,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Mantenha o nível de patch dos contêineres do Windows sincronizado com o nível do patch do host</t>
+          <t>Se necessário, use snapshots do nodePool</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4890,7 +4894,7 @@
       <c r="G91" s="21" t="n"/>
       <c r="H91" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/virtualization/windowscontainers/deploy-containers/version-compatibility?tabs=windows-server-20H2%2Cwindows-10-20H2</t>
+          <t>https://learn.microsoft.com/azure/aks/node-pool-snapshot</t>
         </is>
       </c>
       <c r="I91" s="15" t="n"/>
@@ -4898,7 +4902,7 @@
       <c r="K91" s="22" t="n"/>
       <c r="L91" s="25" t="inlineStr">
         <is>
-          <t>67138b82-0102-4ce1-9ee3-01e6e882e52e</t>
+          <t>64d1a846-e28a-4b6b-9a33-22a635c15a21</t>
         </is>
       </c>
       <c r="M91" s="25" t="n"/>
@@ -4914,19 +4918,15 @@
       </c>
       <c r="B92" s="21" t="inlineStr">
         <is>
-          <t>Conformidade</t>
+          <t>Custar</t>
         </is>
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>Envie logs mestre (também conhecidos como logs de API) para o Azure Monitor ou sua solução de gerenciamento de logs preferida</t>
-        </is>
-      </c>
-      <c r="D92" s="21" t="inlineStr">
-        <is>
-          <t>Por meio de Configurações de Diagnóstico no nível do cluster</t>
-        </is>
-      </c>
+          <t>Considere pools de nós spot para cargas de trabalho não sensíveis ao tempo</t>
+        </is>
+      </c>
+      <c r="D92" s="21" t="n"/>
       <c r="E92" s="21" t="inlineStr">
         <is>
           <t>Baixo</t>
@@ -4940,7 +4940,7 @@
       <c r="G92" s="21" t="n"/>
       <c r="H92" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/monitor-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/spot-node-pool</t>
         </is>
       </c>
       <c r="I92" s="15" t="n"/>
@@ -4948,7 +4948,7 @@
       <c r="K92" s="22" t="n"/>
       <c r="L92" s="25" t="inlineStr">
         <is>
-          <t>5b56ad48-408f-4e72-934c-476ba280dcf5</t>
+          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
         </is>
       </c>
       <c r="M92" s="25" t="n"/>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>Considere pools de nós spot para cargas de trabalho não sensíveis ao tempo</t>
+          <t>Considere o nó virtual AKS para intermitência rápida</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -4986,7 +4986,7 @@
       <c r="G93" s="21" t="n"/>
       <c r="H93" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/spot-node-pool</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I93" s="15" t="n"/>
@@ -4994,7 +4994,7 @@
       <c r="K93" s="22" t="n"/>
       <c r="L93" s="25" t="inlineStr">
         <is>
-          <t>c5a5b252-1e44-4a59-a9d2-399c4d7b68d0</t>
+          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
         </is>
       </c>
       <c r="M93" s="25" t="n"/>
@@ -5010,18 +5010,18 @@
       </c>
       <c r="B94" s="21" t="inlineStr">
         <is>
-          <t>Custar</t>
+          <t>Monitorização</t>
         </is>
       </c>
       <c r="C94" s="21" t="inlineStr">
         <is>
-          <t>Considere o nó virtual AKS para intermitência rápida</t>
+          <t>Monitore suas métricas de cluster com o Container Insights (ou outras ferramentas como o Prometheus)</t>
         </is>
       </c>
       <c r="D94" s="21" t="n"/>
       <c r="E94" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5032,7 +5032,7 @@
       <c r="G94" s="21" t="n"/>
       <c r="H94" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
         </is>
       </c>
       <c r="I94" s="15" t="n"/>
@@ -5040,7 +5040,7 @@
       <c r="K94" s="22" t="n"/>
       <c r="L94" s="25" t="inlineStr">
         <is>
-          <t>c755562f-2b4e-4456-9b4d-874a748b662e</t>
+          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
         </is>
       </c>
       <c r="M94" s="25" t="n"/>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="C95" s="21" t="inlineStr">
         <is>
-          <t>Monitore suas métricas de cluster com o Container Insights (ou outras ferramentas como o Prometheus)</t>
+          <t>Armazene e analise seus logs de cluster com o Container Insights (ou outras ferramentas como Telegraf/ElasticSearch)</t>
         </is>
       </c>
       <c r="D95" s="21" t="n"/>
@@ -5086,7 +5086,7 @@
       <c r="K95" s="22" t="n"/>
       <c r="L95" s="25" t="inlineStr">
         <is>
-          <t>6f8389a7-f82c-4b8e-a8c0-aa63a25a4956</t>
+          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
         </is>
       </c>
       <c r="M95" s="25" t="n"/>
@@ -5107,13 +5107,13 @@
       </c>
       <c r="C96" s="21" t="inlineStr">
         <is>
-          <t>Armazene e analise seus logs de cluster com o Container Insights (ou outras ferramentas como Telegraf/ElasticSearch)</t>
+          <t>Monitorar a utilização da CPU e da memória dos nós</t>
         </is>
       </c>
       <c r="D96" s="21" t="n"/>
       <c r="E96" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5124,7 +5124,7 @@
       <c r="G96" s="21" t="n"/>
       <c r="H96" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/insights/container-insights-overview</t>
+          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
         </is>
       </c>
       <c r="I96" s="15" t="n"/>
@@ -5132,7 +5132,7 @@
       <c r="K96" s="22" t="n"/>
       <c r="L96" s="25" t="inlineStr">
         <is>
-          <t>eaa8dc4a-2436-47b3-9697-15b1752beee0</t>
+          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
         </is>
       </c>
       <c r="M96" s="25" t="n"/>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>Monitorar a utilização da CPU e da memória dos nós</t>
+          <t>Se estiver usando o Azure CNI, monitore a % de IPs de pod consumidos por nó</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5170,7 +5170,7 @@
       <c r="G97" s="21" t="n"/>
       <c r="H97" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/containers/container-insights-analyze</t>
+          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
         </is>
       </c>
       <c r="I97" s="15" t="n"/>
@@ -5178,7 +5178,7 @@
       <c r="K97" s="22" t="n"/>
       <c r="L97" s="25" t="inlineStr">
         <is>
-          <t>4621dd68-c5a5-4be2-bdb1-1726769ef669</t>
+          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
         </is>
       </c>
       <c r="M97" s="25" t="n"/>
@@ -5199,10 +5199,14 @@
       </c>
       <c r="C98" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o Azure CNI, monitore a % de IPs de pod consumidos por nó</t>
-        </is>
-      </c>
-      <c r="D98" s="21" t="n"/>
+          <t>Monitorar a profundidade da fila de disco do sistema operacional nos nós</t>
+        </is>
+      </c>
+      <c r="D98" s="21" t="inlineStr">
+        <is>
+          <t>A E/S no disco do sistema operacional é um recurso crítico. Se o sistema operacional nos nós for limitado na E/S, isso pode levar a um comportamento imprevisível, geralmente terminando no nó sendo declarado NotReady</t>
+        </is>
+      </c>
       <c r="E98" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5216,7 +5220,7 @@
       <c r="G98" s="21" t="n"/>
       <c r="H98" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/configure-azure-cni</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
         </is>
       </c>
       <c r="I98" s="15" t="n"/>
@@ -5224,7 +5228,7 @@
       <c r="K98" s="22" t="n"/>
       <c r="L98" s="25" t="inlineStr">
         <is>
-          <t>1a4835ac-9422-423e-ae80-b123081a5417</t>
+          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
         </is>
       </c>
       <c r="M98" s="25" t="n"/>
@@ -5245,14 +5249,10 @@
       </c>
       <c r="C99" s="21" t="inlineStr">
         <is>
-          <t>Monitorar a profundidade da fila de disco do sistema operacional nos nós</t>
-        </is>
-      </c>
-      <c r="D99" s="21" t="inlineStr">
-        <is>
-          <t>A E/S no disco do sistema operacional é um recurso crítico. Se o sistema operacional nos nós for limitado na E/S, isso pode levar a um comportamento imprevisível, geralmente terminando no nó sendo declarado NotReady</t>
-        </is>
-      </c>
+          <t>Se não estiver usando filtragem de saída com AzFW/NVA, monitore as portas SNAT ALB alocadas padrão</t>
+        </is>
+      </c>
+      <c r="D99" s="21" t="n"/>
       <c r="E99" s="21" t="inlineStr">
         <is>
           <t>Média</t>
@@ -5266,7 +5266,7 @@
       <c r="G99" s="21" t="n"/>
       <c r="H99" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/premium-storage-performance</t>
+          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
         </is>
       </c>
       <c r="I99" s="15" t="n"/>
@@ -5274,7 +5274,7 @@
       <c r="K99" s="22" t="n"/>
       <c r="L99" s="25" t="inlineStr">
         <is>
-          <t>415833ea-3ad3-4c2d-b733-165c3acbe04b</t>
+          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
         </is>
       </c>
       <c r="M99" s="25" t="n"/>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="C100" s="21" t="inlineStr">
         <is>
-          <t>Se não estiver usando filtragem de saída com AzFW/NVA, monitore as portas SNAT ALB alocadas padrão</t>
+          <t>Assine as notificações de integridade de recursos para seu cluster AKS</t>
         </is>
       </c>
       <c r="D100" s="21" t="n"/>
@@ -5312,7 +5312,7 @@
       <c r="G100" s="21" t="n"/>
       <c r="H100" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/load-balancer-standard</t>
+          <t>https://learn.microsoft.com/azure/aks/aks-resource-health</t>
         </is>
       </c>
       <c r="I100" s="15" t="n"/>
@@ -5320,7 +5320,7 @@
       <c r="K100" s="22" t="n"/>
       <c r="L100" s="25" t="inlineStr">
         <is>
-          <t>be209d39-fda4-4777-a424-d116785c2fa5</t>
+          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
         </is>
       </c>
       <c r="M100" s="25" t="n"/>
@@ -5336,18 +5336,18 @@
       </c>
       <c r="B101" s="21" t="inlineStr">
         <is>
-          <t>Monitorização</t>
+          <t>Recursos</t>
         </is>
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>Assine as notificações de integridade de recursos para seu cluster AKS</t>
+          <t>Configurar solicitações e limites nas especificações do pod</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
       <c r="E101" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -5358,7 +5358,7 @@
       <c r="G101" s="21" t="n"/>
       <c r="H101" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/aks-resource-health</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
         </is>
       </c>
       <c r="I101" s="15" t="n"/>
@@ -5366,7 +5366,7 @@
       <c r="K101" s="22" t="n"/>
       <c r="L101" s="25" t="inlineStr">
         <is>
-          <t>74c2ee76-569b-4a79-a57e-dedf91b022c9</t>
+          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
         </is>
       </c>
       <c r="M101" s="25" t="n"/>
@@ -5387,13 +5387,13 @@
       </c>
       <c r="C102" s="21" t="inlineStr">
         <is>
-          <t>Configurar solicitações e limites nas especificações do pod</t>
+          <t>Impor cotas de recursos para namespaces</t>
         </is>
       </c>
       <c r="D102" s="21" t="n"/>
       <c r="E102" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -5412,7 +5412,7 @@
       <c r="K102" s="22" t="n"/>
       <c r="L102" s="25" t="inlineStr">
         <is>
-          <t>b54eb2eb-03dd-4aa3-9927-18e2edb11726</t>
+          <t>769ef669-1a48-435a-a942-223ece80b123</t>
         </is>
       </c>
       <c r="M102" s="25" t="n"/>
@@ -5433,13 +5433,13 @@
       </c>
       <c r="C103" s="21" t="inlineStr">
         <is>
-          <t>Impor cotas de recursos para namespaces</t>
+          <t>Verifique se sua assinatura tem cota suficiente para expandir seus nodepools</t>
         </is>
       </c>
       <c r="D103" s="21" t="n"/>
       <c r="E103" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -5450,7 +5450,7 @@
       <c r="G103" s="21" t="n"/>
       <c r="H103" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-scheduler</t>
+          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="I103" s="15" t="n"/>
@@ -5458,7 +5458,7 @@
       <c r="K103" s="22" t="n"/>
       <c r="L103" s="25" t="inlineStr">
         <is>
-          <t>769ef669-1a48-435a-a942-223ece80b123</t>
+          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
         </is>
       </c>
       <c r="M103" s="25" t="n"/>
@@ -5474,18 +5474,18 @@
       </c>
       <c r="B104" s="21" t="inlineStr">
         <is>
-          <t>Recursos</t>
+          <t>Escalabilidade</t>
         </is>
       </c>
       <c r="C104" s="21" t="inlineStr">
         <is>
-          <t>Verifique se sua assinatura tem cota suficiente para expandir seus nodepools</t>
+          <t>Usar o Autoscaler de Cluster</t>
         </is>
       </c>
       <c r="D104" s="21" t="n"/>
       <c r="E104" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -5496,7 +5496,7 @@
       <c r="G104" s="21" t="n"/>
       <c r="H104" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I104" s="15" t="n"/>
@@ -5504,7 +5504,7 @@
       <c r="K104" s="22" t="n"/>
       <c r="L104" s="25" t="inlineStr">
         <is>
-          <t>081a5417-4158-433e-a3ad-3c2de733165c</t>
+          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
         </is>
       </c>
       <c r="M104" s="25" t="n"/>
@@ -5525,13 +5525,13 @@
       </c>
       <c r="C105" s="21" t="inlineStr">
         <is>
-          <t>Usar o Autoscaler de Cluster</t>
+          <t>Personalizar a configuração do nó para pools de nós AKS</t>
         </is>
       </c>
       <c r="D105" s="21" t="n"/>
       <c r="E105" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5542,7 +5542,7 @@
       <c r="G105" s="21" t="n"/>
       <c r="H105" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
         </is>
       </c>
       <c r="I105" s="15" t="n"/>
@@ -5550,7 +5550,7 @@
       <c r="K105" s="22" t="n"/>
       <c r="L105" s="25" t="inlineStr">
         <is>
-          <t>90ce65de-8e13-4f9c-abd4-69266abca264</t>
+          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
         </is>
       </c>
       <c r="M105" s="25" t="n"/>
@@ -5571,13 +5571,13 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Personalizar a configuração do nó para pools de nós AKS</t>
+          <t>Use o Horizontal Pod Autoscaler quando necessário</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
       <c r="E106" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5588,7 +5588,7 @@
       <c r="G106" s="21" t="n"/>
       <c r="H106" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/custom-node-configuration</t>
+          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
         </is>
       </c>
       <c r="I106" s="15" t="n"/>
@@ -5596,7 +5596,7 @@
       <c r="K106" s="22" t="n"/>
       <c r="L106" s="25" t="inlineStr">
         <is>
-          <t>831c2872-c693-4b39-a887-a561bada49bc</t>
+          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
         </is>
       </c>
       <c r="M106" s="25" t="n"/>
@@ -5617,13 +5617,17 @@
       </c>
       <c r="C107" s="21" t="inlineStr">
         <is>
-          <t>Use o Horizontal Pod Autoscaler quando necessário</t>
-        </is>
-      </c>
-      <c r="D107" s="21" t="n"/>
+          <t>Considere um tamanho de nó apropriado, não muito grande ou muito pequeno</t>
+        </is>
+      </c>
+      <c r="D107" s="21" t="inlineStr">
+        <is>
+          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
+        </is>
+      </c>
       <c r="E107" s="21" t="inlineStr">
         <is>
-          <t>Média</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -5634,7 +5638,7 @@
       <c r="G107" s="21" t="n"/>
       <c r="H107" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/concepts-scale</t>
+          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
         </is>
       </c>
       <c r="I107" s="15" t="n"/>
@@ -5642,7 +5646,7 @@
       <c r="K107" s="22" t="n"/>
       <c r="L107" s="25" t="inlineStr">
         <is>
-          <t>faa19bfe-9d55-4d04-a3c4-919ca1b2d121</t>
+          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
         </is>
       </c>
       <c r="M107" s="25" t="n"/>
@@ -5663,17 +5667,13 @@
       </c>
       <c r="C108" s="21" t="inlineStr">
         <is>
-          <t>Considere um tamanho de nó apropriado, não muito grande ou muito pequeno</t>
-        </is>
-      </c>
-      <c r="D108" s="21" t="inlineStr">
-        <is>
-          <t>Nós maiores trarão maior desempenho e recursos, como discos efêmeros e rede acelerada, mas aumentarão o raio de explosão e diminuirão a granularidade de dimensionamento</t>
-        </is>
-      </c>
+          <t>Se mais de 5000 nós forem necessários para escalabilidade, considere o uso de um cluster AKS adicional</t>
+        </is>
+      </c>
+      <c r="D108" s="21" t="n"/>
       <c r="E108" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -5684,7 +5684,7 @@
       <c r="G108" s="21" t="n"/>
       <c r="H108" s="15" t="inlineStr">
         <is>
-          <t>https://blog.cloudtrooper.net/2020/10/23/which-vm-size-should-i-choose-as-aks-node/</t>
+          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
         </is>
       </c>
       <c r="I108" s="15" t="n"/>
@@ -5692,7 +5692,7 @@
       <c r="K108" s="22" t="n"/>
       <c r="L108" s="25" t="inlineStr">
         <is>
-          <t>5ae124ba-34df-4585-bcdc-e9bd3bb0cdb3</t>
+          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
         </is>
       </c>
       <c r="M108" s="25" t="n"/>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>Se mais de 5000 nós forem necessários para escalabilidade, considere o uso de um cluster AKS adicional</t>
+          <t>Considere assinar o EventGrid Events para automação AKS</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5730,7 +5730,7 @@
       <c r="G109" s="21" t="n"/>
       <c r="H109" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/quotas-skus-regions#service-quotas-and-limits</t>
+          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
         </is>
       </c>
       <c r="I109" s="15" t="n"/>
@@ -5738,7 +5738,7 @@
       <c r="K109" s="22" t="n"/>
       <c r="L109" s="25" t="inlineStr">
         <is>
-          <t>38800e6a-ae01-40a2-9fbc-ae5a06e5462d</t>
+          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
         </is>
       </c>
       <c r="M109" s="25" t="n"/>
@@ -5759,7 +5759,7 @@
       </c>
       <c r="C110" s="21" t="inlineStr">
         <is>
-          <t>Considere assinar o EventGrid Events para automação AKS</t>
+          <t>Para operações de longa duração em um cluster AKS, considere o encerramento do evento</t>
         </is>
       </c>
       <c r="D110" s="21" t="n"/>
@@ -5776,7 +5776,7 @@
       <c r="G110" s="21" t="n"/>
       <c r="H110" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/event-grid/event-schema-aks</t>
+          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
         </is>
       </c>
       <c r="I110" s="15" t="n"/>
@@ -5784,7 +5784,7 @@
       <c r="K110" s="22" t="n"/>
       <c r="L110" s="25" t="inlineStr">
         <is>
-          <t>9583c0f6-6083-43f6-aa6b-df7102c901bb</t>
+          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
         </is>
       </c>
       <c r="M110" s="25" t="n"/>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="C111" s="21" t="inlineStr">
         <is>
-          <t>Para operações de longa duração em um cluster AKS, considere o encerramento do evento</t>
+          <t>Se necessário, considere usar hosts dedicados do Azure para nós AKS</t>
         </is>
       </c>
       <c r="D111" s="21" t="n"/>
@@ -5822,14 +5822,14 @@
       <c r="G111" s="21" t="n"/>
       <c r="H111" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/manage-abort-operations</t>
+          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
         </is>
       </c>
       <c r="J111" s="22" t="n"/>
       <c r="K111" s="22" t="n"/>
       <c r="L111" s="25" t="inlineStr">
         <is>
-          <t>c5016d8c-c6c9-4165-89ae-673ef0fff19d</t>
+          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
         </is>
       </c>
       <c r="M111" s="25" t="n"/>
@@ -5845,18 +5845,18 @@
       </c>
       <c r="B112" s="21" t="inlineStr">
         <is>
-          <t>Escalabilidade</t>
+          <t>Armazenamento</t>
         </is>
       </c>
       <c r="C112" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, considere usar hosts dedicados do Azure para nós AKS</t>
+          <t>Usar discos efêmeros do sistema operacional</t>
         </is>
       </c>
       <c r="D112" s="21" t="n"/>
       <c r="E112" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Alto</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5867,7 +5867,7 @@
       <c r="G112" s="21" t="n"/>
       <c r="H112" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-azure-dedicated-hosts</t>
+          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
         </is>
       </c>
       <c r="I112" s="15" t="n"/>
@@ -5875,7 +5875,7 @@
       <c r="K112" s="23" t="n"/>
       <c r="L112" s="25" t="inlineStr">
         <is>
-          <t>c4e37133-f186-4ce1-aed9-9f1b32f6e021</t>
+          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
         </is>
       </c>
       <c r="M112" s="25" t="n"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>Usar discos efêmeros do sistema operacional</t>
+          <t>Para discos não efêmeros, use IOPS altos e discos maiores do sistema operacional para os nós ao executar muitos pods/nó, pois requer alto desempenho para executar vários pods e gerará logs enormes com limites de rotação de log AKS padrão</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -5913,7 +5913,7 @@
       <c r="G113" s="21" t="n"/>
       <c r="H113" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/cluster-configuration</t>
+          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
         </is>
       </c>
       <c r="I113" s="15" t="n"/>
@@ -5921,7 +5921,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>24367b33-6971-45b1-952b-eee0b9b588de</t>
+          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>
@@ -5942,13 +5942,13 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>Para discos não efêmeros, use IOPS altos e discos maiores do sistema operacional para os nós ao executar muitos pods/nó, pois requer alto desempenho para executar vários pods e gerará logs enormes com limites de rotação de log AKS padrão</t>
+          <t>Para a opção de armazenamento de hiperdesempenho, use Ultra Disks no AKS</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
       <c r="E114" s="21" t="inlineStr">
         <is>
-          <t>Alto</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -5959,7 +5959,7 @@
       <c r="G114" s="21" t="n"/>
       <c r="H114" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/virtual-machines/disks-types</t>
+          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
         </is>
       </c>
       <c r="I114" s="15" t="n"/>
@@ -5967,7 +5967,7 @@
       <c r="K114" s="22" t="n"/>
       <c r="L114" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
         </is>
       </c>
       <c r="M114" s="25" t="n"/>
@@ -5988,13 +5988,13 @@
       </c>
       <c r="C115" s="21" t="inlineStr">
         <is>
-          <t>Para a opção de armazenamento de hiperdesempenho, use Ultra Disks no AKS</t>
+          <t>Evite manter o estado no cluster e armazene dados fora (AzStorage, AzSQL, Cosmos, etc)</t>
         </is>
       </c>
       <c r="D115" s="21" t="n"/>
       <c r="E115" s="21" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Média</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -6005,14 +6005,14 @@
       <c r="G115" s="21" t="n"/>
       <c r="H115" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/use-ultra-disks</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
         </is>
       </c>
       <c r="J115" s="22" t="n"/>
       <c r="K115" s="22" t="n"/>
       <c r="L115" s="25" t="inlineStr">
         <is>
-          <t>39c486ce-d5af-4062-89d5-18bb5fd795db</t>
+          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
         </is>
       </c>
       <c r="M115" s="25" t="n"/>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>Evite manter o estado no cluster e armazene dados fora (AzStorage, AzSQL, Cosmos, etc)</t>
+          <t>Se estiver usando o AzFiles Standard, considere o AzFiles Premium e/ou ANF por motivos de desempenho</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6050,14 +6050,14 @@
       <c r="G116" s="21" t="n"/>
       <c r="H116" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-multi-region</t>
+          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-storage</t>
         </is>
       </c>
       <c r="J116" s="22" t="n"/>
       <c r="K116" s="22" t="n"/>
       <c r="L116" s="25" t="inlineStr">
         <is>
-          <t>9f7547c1-747d-4c56-868a-714435bd19dd</t>
+          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
         </is>
       </c>
       <c r="M116" s="25" t="n"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o AzFiles Standard, considere o AzFiles Premium e/ou ANF por motivos de desempenho</t>
+          <t>Se estiver usando Discos e AZs do Azure, considere ter nodepools dentro de uma zona para disco LRS com VolumeBindingMode:WaitForFirstConsumer para provisionar armazenamento na zona direita ou use o disco ZRS para nodepools abrangendo várias zonas</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -6095,14 +6095,14 @@
       <c r="G117" s="21" t="n"/>
       <c r="H117" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/aks/operator-best-practices-storage</t>
+          <t>https://learn.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
         </is>
       </c>
       <c r="J117" s="22" t="n"/>
       <c r="K117" s="22" t="n"/>
       <c r="L117" s="25" t="inlineStr">
         <is>
-          <t>24429eb7-2281-4376-85cc-57b4a4b18142</t>
+          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
         </is>
       </c>
       <c r="M117" s="25" t="n"/>
@@ -6111,46 +6111,17 @@
       <c r="P117" s="25" t="n"/>
     </row>
     <row r="118" ht="16.5" customHeight="1">
-      <c r="A118" s="21" t="inlineStr">
-        <is>
-          <t>Operações</t>
-        </is>
-      </c>
-      <c r="B118" s="21" t="inlineStr">
-        <is>
-          <t>Armazenamento</t>
-        </is>
-      </c>
-      <c r="C118" s="21" t="inlineStr">
-        <is>
-          <t>Se estiver usando Discos e AZs do Azure, considere ter nodepools dentro de uma zona para disco LRS com VolumeBindingMode:WaitForFirstConsumer para provisionar armazenamento na zona direita ou use o disco ZRS para nodepools abrangendo várias zonas</t>
-        </is>
-      </c>
+      <c r="A118" s="21" t="n"/>
+      <c r="B118" s="21" t="n"/>
+      <c r="C118" s="21" t="n"/>
       <c r="D118" s="21" t="n"/>
-      <c r="E118" s="21" t="inlineStr">
-        <is>
-          <t>Média</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Não verificado</t>
-        </is>
-      </c>
+      <c r="E118" s="21" t="n"/>
       <c r="G118" s="21" t="n"/>
-      <c r="H118" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/aks/availability-zones#azure-disk-availability-zone-support</t>
-        </is>
-      </c>
+      <c r="H118" s="15" t="n"/>
       <c r="I118" s="15" t="n"/>
       <c r="J118" s="22" t="n"/>
       <c r="K118" s="22" t="n"/>
-      <c r="L118" s="25" t="inlineStr">
-        <is>
-          <t>83958a8c-2689-4b32-ab57-cfc64546135a</t>
-        </is>
-      </c>
+      <c r="L118" s="25" t="n"/>
       <c r="M118" s="25" t="n"/>
       <c r="N118" s="25" t="n"/>
       <c r="O118" s="25" t="n"/>
@@ -9042,7 +9013,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F119" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F118" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/aks_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.pt.xlsx
@@ -2628,7 +2628,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Para o Gerenciamento de Acesso à Identidade POD, use a Identidade de Carga de Trabalho do Azure AD (visualização)</t>
+          <t>Para o Gerenciamento de Acesso à Identidade de Pod, use a Identidade de Carga de Trabalho do Azure AD (visualização)</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>Se estiver usando o CNI do Azure, dimensione sua sub-rede de acordo considerando o número máximo de pods por nó</t>
+          <t>Se estiver usando o Azure CNI, dimensione sua sub-rede de acordo considerando o número máximo de pods por nó</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -4877,7 +4877,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>Se necessário, use snapshots do nodePool</t>
+          <t>Se necessário, use instantâneos do nodePool</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -5571,7 +5571,7 @@
       </c>
       <c r="C106" s="21" t="inlineStr">
         <is>
-          <t>Use o Horizontal Pod Autoscaler quando necessário</t>
+          <t>Use o Autoscaler do Pod Horizontal quando necessário</t>
         </is>
       </c>
       <c r="D106" s="21" t="n"/>
@@ -5921,7 +5921,7 @@
       <c r="K113" s="22" t="n"/>
       <c r="L113" s="25" t="inlineStr">
         <is>
-          <t>fc4972cc-3cd2-45bf-a707-6e9eab4bed32</t>
+          <t>f0ce315f-1120-4166-8206-94f2cf3a4d07</t>
         </is>
       </c>
       <c r="M113" s="25" t="n"/>

--- a/spreadsheet/macrofree/aks_checklist.pt.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.pt.xlsx
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Não use o complemento de roteamento de aplicativo AKS</t>
+          <t>Não use AKS HTTP Routing Add-On, use em vez disso a entrada NGINX gerenciada com o complemento de roteamento de aplicativo.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
